--- a/Modello/nuovi modelli/inputTesiOriginali/test2/DMU/dmu-35.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/DMU/dmu-35.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -67,17 +67,12 @@
     <definedName name="SBM_7">ANNO1!$G$8</definedName>
     <definedName name="SBM_9">ANNO1!$G$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>soluzione1</t>
   </si>
@@ -122,13 +117,139 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>157928</t>
+  </si>
+  <si>
+    <t>0.758554</t>
+  </si>
+  <si>
+    <t>1.31351</t>
+  </si>
+  <si>
+    <t>0.756315</t>
+  </si>
+  <si>
+    <t>1.3222</t>
+  </si>
+  <si>
+    <t>0.472055</t>
+  </si>
+  <si>
+    <t>0.378158</t>
+  </si>
+  <si>
+    <t>157964</t>
+  </si>
+  <si>
+    <t>0.00825734</t>
+  </si>
+  <si>
+    <t>0.50421</t>
+  </si>
+  <si>
+    <t>157914</t>
+  </si>
+  <si>
+    <t>0.750573</t>
+  </si>
+  <si>
+    <t>1.31537</t>
+  </si>
+  <si>
+    <t>0.718494</t>
+  </si>
+  <si>
+    <t>1.3918</t>
+  </si>
+  <si>
+    <t>0.558162</t>
+  </si>
+  <si>
+    <t>0.359247</t>
+  </si>
+  <si>
+    <t>157932</t>
+  </si>
+  <si>
+    <t>0.374372</t>
+  </si>
+  <si>
+    <t>66243.3</t>
+  </si>
+  <si>
+    <t>0.92214</t>
+  </si>
+  <si>
+    <t>1.07469</t>
+  </si>
+  <si>
+    <t>0.881174</t>
+  </si>
+  <si>
+    <t>1.13485</t>
+  </si>
+  <si>
+    <t>0.485351</t>
+  </si>
+  <si>
+    <t>0.440587</t>
+  </si>
+  <si>
+    <t>93816.3</t>
+  </si>
+  <si>
+    <t>0.921133</t>
+  </si>
+  <si>
+    <t>1.07562</t>
+  </si>
+  <si>
+    <t>0.879423</t>
+  </si>
+  <si>
+    <t>1.13711</t>
+  </si>
+  <si>
+    <t>0.762286</t>
+  </si>
+  <si>
+    <t>0.586282</t>
+  </si>
+  <si>
+    <t>150368</t>
+  </si>
+  <si>
+    <t>0.780999</t>
+  </si>
+  <si>
+    <t>1.28531</t>
+  </si>
+  <si>
+    <t>0.777782</t>
+  </si>
+  <si>
+    <t>1.28571</t>
+  </si>
+  <si>
+    <t>0.411458</t>
+  </si>
+  <si>
+    <t>0.518521</t>
+  </si>
+  <si>
+    <t>172537</t>
+  </si>
+  <si>
+    <t>0.515847</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +286,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,26 +551,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.6640625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -480,44 +593,212 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/DMU/dmu-35.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/DMU/dmu-35.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
   <si>
     <t>soluzione1</t>
   </si>
@@ -597,208 +597,208 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="B2">
+        <v>157928.46725457339</v>
+      </c>
+      <c r="C2">
+        <v>0.75855434628821705</v>
+      </c>
+      <c r="D2">
+        <v>1.3135100664602124</v>
+      </c>
+      <c r="E2">
+        <v>0.75631500709488308</v>
+      </c>
+      <c r="F2">
+        <v>1.3222003935121516</v>
+      </c>
+      <c r="G2">
+        <v>0.47205542525660998</v>
+      </c>
+      <c r="H2">
+        <v>0.37815750354744154</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+      <c r="B3">
+        <v>157964.29722237238</v>
+      </c>
+      <c r="C3">
+        <v>0.75855434628821705</v>
+      </c>
+      <c r="D3">
+        <v>1.3135100664602124</v>
+      </c>
+      <c r="E3">
+        <v>0.75631500709488308</v>
+      </c>
+      <c r="F3">
+        <v>1.3222003935121516</v>
+      </c>
+      <c r="G3">
+        <v>0.0082573378942000109</v>
+      </c>
+      <c r="H3">
+        <v>0.50421000472992206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
+      <c r="B4">
+        <v>157913.6827929173</v>
+      </c>
+      <c r="C4">
+        <v>0.75057289717930797</v>
+      </c>
+      <c r="D4">
+        <v>1.315369769799192</v>
+      </c>
+      <c r="E4">
+        <v>0.71849420560021371</v>
+      </c>
+      <c r="F4">
+        <v>1.3917996724338544</v>
+      </c>
+      <c r="G4">
+        <v>0.5581623891658648</v>
+      </c>
+      <c r="H4">
+        <v>0.35924710280010685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
+      <c r="B5">
+        <v>157932.11935150076</v>
+      </c>
+      <c r="C5">
+        <v>0.75855434628821705</v>
+      </c>
+      <c r="D5">
+        <v>1.3135100664602128</v>
+      </c>
+      <c r="E5">
+        <v>0.75631500709488308</v>
+      </c>
+      <c r="F5">
+        <v>1.3222003935121516</v>
+      </c>
+      <c r="G5">
+        <v>0.3743722112418163</v>
+      </c>
+      <c r="H5">
+        <v>0.37815750354744154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
+      <c r="B6">
+        <v>66243.326608415024</v>
+      </c>
+      <c r="C6">
+        <v>0.92213978561271315</v>
+      </c>
+      <c r="D6">
+        <v>1.0746932806470384</v>
+      </c>
+      <c r="E6">
+        <v>0.88117390274136209</v>
+      </c>
+      <c r="F6">
+        <v>1.1348497690285264</v>
+      </c>
+      <c r="G6">
+        <v>0.48535115586598659</v>
+      </c>
+      <c r="H6">
+        <v>0.44058695137068105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
+      <c r="B7">
+        <v>93816.285226089036</v>
+      </c>
+      <c r="C7">
+        <v>0.9211332729565318</v>
+      </c>
+      <c r="D7">
+        <v>1.0756190926859568</v>
+      </c>
+      <c r="E7">
+        <v>0.87942275309941897</v>
+      </c>
+      <c r="F7">
+        <v>1.1371095374501301</v>
+      </c>
+      <c r="G7">
+        <v>0.7622856858314877</v>
+      </c>
+      <c r="H7">
+        <v>0.58628183539961254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
+      <c r="B8">
+        <v>150367.86418354756</v>
+      </c>
+      <c r="C8">
+        <v>0.78099915440391754</v>
+      </c>
+      <c r="D8">
+        <v>1.2853128390235149</v>
+      </c>
+      <c r="E8">
+        <v>0.77778198689377143</v>
+      </c>
+      <c r="F8">
+        <v>1.2857073278255011</v>
+      </c>
+      <c r="G8">
+        <v>0.41145761090509209</v>
+      </c>
+      <c r="H8">
+        <v>0.51852132459584765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
+      <c r="B9">
+        <v>172536.85496413099</v>
+      </c>
+      <c r="C9">
+        <v>0.75855434628821705</v>
+      </c>
+      <c r="D9">
+        <v>1.3135100664602124</v>
+      </c>
+      <c r="E9">
+        <v>0.75631500709488308</v>
+      </c>
+      <c r="F9">
+        <v>1.3222003935121516</v>
+      </c>
+      <c r="G9">
+        <v>0.51584659401742705</v>
+      </c>
+      <c r="H9">
+        <v>0.50421000472992206</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/DMU/dmu-35.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/DMU/dmu-35.xlsx
@@ -616,7 +616,7 @@
         <v>0.47205542525660998</v>
       </c>
       <c r="H2">
-        <v>0.37815750354744154</v>
+        <v>0.75631500709488308</v>
       </c>
     </row>
     <row r="3">
@@ -642,7 +642,7 @@
         <v>0.0082573378942000109</v>
       </c>
       <c r="H3">
-        <v>0.50421000472992206</v>
+        <v>0.75631500709488308</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         <v>0.5581623891658648</v>
       </c>
       <c r="H4">
-        <v>0.35924710280010685</v>
+        <v>0.71849420560021371</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +694,7 @@
         <v>0.3743722112418163</v>
       </c>
       <c r="H5">
-        <v>0.37815750354744154</v>
+        <v>0.75631500709488308</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         <v>0.48535115586598659</v>
       </c>
       <c r="H6">
-        <v>0.44058695137068105</v>
+        <v>0.88117390274136209</v>
       </c>
     </row>
     <row r="7">
@@ -746,7 +746,7 @@
         <v>0.7622856858314877</v>
       </c>
       <c r="H7">
-        <v>0.58628183539961254</v>
+        <v>0.87942275309941897</v>
       </c>
     </row>
     <row r="8">
@@ -772,7 +772,7 @@
         <v>0.41145761090509209</v>
       </c>
       <c r="H8">
-        <v>0.51852132459584765</v>
+        <v>0.77778198689377143</v>
       </c>
     </row>
     <row r="9">
@@ -798,7 +798,7 @@
         <v>0.51584659401742705</v>
       </c>
       <c r="H9">
-        <v>0.50421000472992206</v>
+        <v>0.75631500709488308</v>
       </c>
     </row>
   </sheetData>
